--- a/MainTop/04.10.2024/макс_месяц с 04.09.2024 по 04.10.2024/печать.xlsx
+++ b/MainTop/04.10.2024/макс_месяц с 04.09.2024 по 04.10.2024/печать.xlsx
@@ -246,12 +246,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -295,12 +301,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -323,48 +337,48 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K39" activeCellId="0" sqref="K39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="9" style="0" width="8.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -390,7 +404,7 @@
       <c r="G2" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>8</v>
       </c>
       <c r="I2" s="0" t="n">
@@ -422,7 +436,7 @@
       <c r="G3" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>8</v>
       </c>
       <c r="I3" s="0" t="n">
@@ -454,7 +468,7 @@
       <c r="G4" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>6</v>
       </c>
       <c r="I4" s="0" t="n">
@@ -486,7 +500,7 @@
       <c r="G5" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>6</v>
       </c>
       <c r="I5" s="0" t="n">
@@ -518,7 +532,7 @@
       <c r="G6" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <v>6</v>
       </c>
       <c r="I6" s="0" t="n">
@@ -550,7 +564,7 @@
       <c r="G7" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I7" s="0" t="n">
@@ -582,7 +596,7 @@
       <c r="G8" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I8" s="0" t="n">
@@ -614,7 +628,7 @@
       <c r="G9" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I9" s="0" t="n">
@@ -646,7 +660,7 @@
       <c r="G10" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I10" s="0" t="n">
@@ -678,7 +692,7 @@
       <c r="G11" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I11" s="0" t="n">
@@ -710,7 +724,7 @@
       <c r="G12" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I12" s="0" t="n">
@@ -742,7 +756,7 @@
       <c r="G13" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I13" s="0" t="n">
@@ -774,7 +788,7 @@
       <c r="G14" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I14" s="0" t="n">
@@ -806,7 +820,7 @@
       <c r="G15" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I15" s="0" t="n">
@@ -838,7 +852,7 @@
       <c r="G16" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I16" s="0" t="n">
@@ -870,7 +884,7 @@
       <c r="G17" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I17" s="0" t="n">
@@ -902,7 +916,7 @@
       <c r="G18" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I18" s="0" t="n">
@@ -934,7 +948,7 @@
       <c r="G19" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I19" s="0" t="n">
@@ -966,7 +980,7 @@
       <c r="G20" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I20" s="0" t="n">
@@ -998,7 +1012,7 @@
       <c r="G21" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21" s="1" t="n">
         <v>24</v>
       </c>
       <c r="I21" s="0" t="n">
@@ -1030,7 +1044,7 @@
       <c r="G22" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="I22" s="0" t="n">
@@ -1062,7 +1076,7 @@
       <c r="G23" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23" s="1" t="n">
         <v>20</v>
       </c>
       <c r="I23" s="0" t="n">
@@ -1094,7 +1108,7 @@
       <c r="G24" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24" s="1" t="n">
         <v>12</v>
       </c>
       <c r="I24" s="0" t="n">
@@ -1126,7 +1140,7 @@
       <c r="G25" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25" s="1" t="n">
         <v>8</v>
       </c>
       <c r="I25" s="0" t="n">
@@ -1158,7 +1172,7 @@
       <c r="G26" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26" s="1" t="n">
         <v>8</v>
       </c>
       <c r="I26" s="0" t="n">
@@ -1190,7 +1204,7 @@
       <c r="G27" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="H27" s="1" t="n">
         <v>8</v>
       </c>
       <c r="I27" s="0" t="n">
@@ -1222,7 +1236,7 @@
       <c r="G28" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="H28" s="1" t="n">
         <v>8</v>
       </c>
       <c r="I28" s="0" t="n">
@@ -1254,7 +1268,7 @@
       <c r="G29" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="H29" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I29" s="0" t="n">
@@ -1286,7 +1300,7 @@
       <c r="G30" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="H30" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I30" s="0" t="n">
@@ -1318,7 +1332,7 @@
       <c r="G31" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="H31" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I31" s="0" t="n">
@@ -1350,7 +1364,7 @@
       <c r="G32" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H32" s="0" t="n">
+      <c r="H32" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I32" s="0" t="n">
@@ -1382,7 +1396,7 @@
       <c r="G33" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H33" s="0" t="n">
+      <c r="H33" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I33" s="0" t="n">
@@ -1414,7 +1428,7 @@
       <c r="G34" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H34" s="0" t="n">
+      <c r="H34" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I34" s="0" t="n">
@@ -1446,7 +1460,7 @@
       <c r="G35" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H35" s="0" t="n">
+      <c r="H35" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I35" s="0" t="n">
@@ -1478,7 +1492,7 @@
       <c r="G36" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H36" s="0" t="n">
+      <c r="H36" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I36" s="0" t="n">
@@ -1510,7 +1524,7 @@
       <c r="G37" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H37" s="0" t="n">
+      <c r="H37" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I37" s="0" t="n">
@@ -1542,7 +1556,7 @@
       <c r="G38" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H38" s="0" t="n">
+      <c r="H38" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I38" s="0" t="n">
@@ -1574,7 +1588,7 @@
       <c r="G39" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H39" s="0" t="n">
+      <c r="H39" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I39" s="0" t="n">
@@ -1606,7 +1620,7 @@
       <c r="G40" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H40" s="0" t="n">
+      <c r="H40" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I40" s="0" t="n">
@@ -1638,7 +1652,7 @@
       <c r="G41" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H41" s="0" t="n">
+      <c r="H41" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I41" s="0" t="n">
@@ -1670,7 +1684,7 @@
       <c r="G42" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H42" s="0" t="n">
+      <c r="H42" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I42" s="0" t="n">
@@ -1702,7 +1716,7 @@
       <c r="G43" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H43" s="0" t="n">
+      <c r="H43" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I43" s="0" t="n">
@@ -1734,7 +1748,7 @@
       <c r="G44" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H44" s="0" t="n">
+      <c r="H44" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I44" s="0" t="n">
@@ -1766,7 +1780,7 @@
       <c r="G45" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H45" s="0" t="n">
+      <c r="H45" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I45" s="0" t="n">
@@ -1798,7 +1812,7 @@
       <c r="G46" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H46" s="0" t="n">
+      <c r="H46" s="1" t="n">
         <v>20</v>
       </c>
       <c r="I46" s="0" t="n">
@@ -1830,7 +1844,7 @@
       <c r="G47" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H47" s="0" t="n">
+      <c r="H47" s="1" t="n">
         <v>8</v>
       </c>
       <c r="I47" s="0" t="n">
@@ -1862,7 +1876,7 @@
       <c r="G48" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H48" s="0" t="n">
+      <c r="H48" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I48" s="0" t="n">
@@ -1894,7 +1908,7 @@
       <c r="G49" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="H49" s="0" t="n">
+      <c r="H49" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I49" s="0" t="n">
